--- a/1.0.0/web/Uploads/Goods/goods_template.xlsx
+++ b/1.0.0/web/Uploads/Goods/goods_template.xlsx
@@ -1,22 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gouweiba/Code/fdx_crm/1.0.0/web/Uploads/Goods/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C08F7C-92FB-9643-A948-7C1A9074DFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10230"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="10240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>规格型号</t>
   </si>
@@ -36,60 +53,18 @@
     <t>备注</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3105</t>
-  </si>
-  <si>
-    <t>方太抽油烟机</t>
-  </si>
-  <si>
-    <t>SATestMode1</t>
-  </si>
-  <si>
-    <t>台</t>
-  </si>
-  <si>
     <t>987456211111</t>
   </si>
   <si>
-    <t>方太品牌系列</t>
-  </si>
-  <si>
-    <t>3106</t>
-  </si>
-  <si>
-    <t>SATestMode2</t>
-  </si>
-  <si>
     <t>987456211112</t>
   </si>
   <si>
-    <t>3107</t>
-  </si>
-  <si>
-    <t>SATestMode3</t>
-  </si>
-  <si>
     <t>987456211113</t>
   </si>
   <si>
-    <t>3108</t>
-  </si>
-  <si>
-    <t>SATestMode4</t>
-  </si>
-  <si>
     <t>987456211114</t>
   </si>
   <si>
-    <t>3109</t>
-  </si>
-  <si>
-    <t>SATestMode5</t>
-  </si>
-  <si>
     <t>987456211115</t>
   </si>
   <si>
@@ -105,23 +80,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物料类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>旧产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺B ST 10寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺B ST 14寸</t>
+  </si>
+  <si>
+    <t>顺B ST 12寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺B ST 16寸</t>
+  </si>
+  <si>
+    <t>顺B ST 18寸</t>
+  </si>
+  <si>
+    <t>00000100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000101</t>
+  </si>
+  <si>
+    <t>00000102</t>
+  </si>
+  <si>
+    <t>00000103</t>
+  </si>
+  <si>
+    <t>00000104</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -130,6 +141,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -155,22 +173,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -431,35 +463,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -479,168 +511,135 @@
       <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2">
+        <v>150</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3">
+        <v>150</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4">
+        <v>150</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5">
+        <v>150</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <v>150</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>3000</v>
-      </c>
-      <c r="G2">
-        <v>2000</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="I6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>3001</v>
-      </c>
-      <c r="G3">
-        <v>2001</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>3002</v>
-      </c>
-      <c r="G4">
-        <v>2002</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>3003</v>
-      </c>
-      <c r="G5">
-        <v>2003</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>3004</v>
-      </c>
-      <c r="G6">
-        <v>2004</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -652,12 +651,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
@@ -667,12 +666,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
